--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project_sikhar\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83A383-D5A5-435D-A86D-477F85982314}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B24B3B-1A94-4132-B643-B7A74BBFBE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -66,7 +66,7 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>16</t>
+    <t>26,28,29,30,31,36</t>
   </si>
   <si>
     <t>Automation1</t>
@@ -444,7 +444,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5546875"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875"/>
     <col min="4" max="4" width="20"/>
     <col min="5" max="5" width="9.77734375"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B24B3B-1A94-4132-B643-B7A74BBFBE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570666F6-44D3-43A2-B6F9-FDFB44D8FA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>26,28,29,30,31,36</t>
-  </si>
-  <si>
     <t>Automation1</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570666F6-44D3-43A2-B6F9-FDFB44D8FA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFBE3E-C832-48DE-A306-FB8E0780A45F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Automation1</t>
   </si>
   <si>
-    <t>34</t>
+    <t>38</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFBE3E-C832-48DE-A306-FB8E0780A45F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9798F-E4F7-4380-88C0-7FDDF5B5B448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>Automation1</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9798F-E4F7-4380-88C0-7FDDF5B5B448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B2530-F644-4915-A061-E2EB672DA2B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B2530-F644-4915-A061-E2EB672DA2B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE8E84-9840-4297-B0A3-A08D506775A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE8E84-9840-4297-B0A3-A08D506775A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9825F78-EC31-493B-B630-5589CBFD26F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3864" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Automation3</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9825F78-EC31-493B-B630-5589CBFD26F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E2C58-43F4-4D32-A8C7-2F95F9041DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>Automation2</t>
+    <t>Automation3</t>
   </si>
   <si>
     <t>43</t>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E2C58-43F4-4D32-A8C7-2F95F9041DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D86B2A9-6106-40A4-8CA9-A5BC2B107F0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
     <t>43</t>
+  </si>
+  <si>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D86B2A9-6106-40A4-8CA9-A5BC2B107F0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA489D74-0591-450C-84C3-B6723EB71762}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Automation2</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA489D74-0591-450C-84C3-B6723EB71762}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A233D64-F363-4264-976D-08CD785C106E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>RunMode</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Automation3</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A233D64-F363-4264-976D-08CD785C106E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B395D-A6EC-46A5-95EE-C37BC84988F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,13 +66,13 @@
     <t>wild1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Automation3</t>
-  </si>
-  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B395D-A6EC-46A5-95EE-C37BC84988F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A5E42-A3F5-4144-8861-C9FD40A70F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>Automation2</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A5E42-A3F5-4144-8861-C9FD40A70F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920B00F-62B1-4155-A272-3FF2E1DAF480}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>Automation2</t>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920B00F-62B1-4155-A272-3FF2E1DAF480}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD04CDD-4BF0-417D-8FD1-8CBE7CBD8CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Automation3</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD04CDD-4BF0-417D-8FD1-8CBE7CBD8CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7AB1D-24C8-459F-84B1-3A6664E0EAC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7AB1D-24C8-459F-84B1-3A6664E0EAC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B820322-113B-4372-B148-41377C63C4B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B820322-113B-4372-B148-41377C63C4B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED40E8-8036-41BA-850F-A8D923C83075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED40E8-8036-41BA-850F-A8D923C83075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D9F8F-1AF4-4A73-B3B9-1632B864BDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Automation3</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D9F8F-1AF4-4A73-B3B9-1632B864BDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC74C1-C031-4ECD-AD6C-17CB635E4F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Automation2</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC74C1-C031-4ECD-AD6C-17CB635E4F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF58BBF-7233-4476-82F8-D8F63E8DE471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Automation1</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF58BBF-7233-4476-82F8-D8F63E8DE471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCED2A-F3A9-40E8-89A9-205AAE295AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Automation3</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCED2A-F3A9-40E8-89A9-205AAE295AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD72F642-C9C6-4E9C-A5D0-24EAFAE3E444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD72F642-C9C6-4E9C-A5D0-24EAFAE3E444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6819F58-014B-4534-B00B-EBAD0F530242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Automation2</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6819F58-014B-4534-B00B-EBAD0F530242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A7F2F-53F5-40F1-9446-C9443D79B385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A7F2F-53F5-40F1-9446-C9443D79B385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD68576-8B07-4E9A-BE60-DE142207A750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD68576-8B07-4E9A-BE60-DE142207A750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25231226-0430-4142-B862-BF62F58BD0E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Automation2</t>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25231226-0430-4142-B862-BF62F58BD0E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A948D2-73EB-43A4-AE48-F8D9ACDA0DC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A948D2-73EB-43A4-AE48-F8D9ACDA0DC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901543B2-8FC5-4C36-9E77-664D4F3B1D83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Automation2</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901543B2-8FC5-4C36-9E77-664D4F3B1D83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FC69B-E2FF-4BFE-8D0A-EB151F33CD3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FC69B-E2FF-4BFE-8D0A-EB151F33CD3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC3D8F2-D47B-47D5-9810-13E55513EA86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Automation3</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC3D8F2-D47B-47D5-9810-13E55513EA86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -69,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Automation2</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -452,7 +458,7 @@
     <col min="4" max="4" width="20"/>
     <col min="5" max="5" width="9.77734375"/>
     <col min="6" max="6" width="15.109375"/>
-    <col min="7" max="1025" width="8.33203125"/>
+    <col min="7" max="1024" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CCA1139-338F-4761-B5F9-9C0014F97207}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CCA1139-338F-4761-B5F9-9C0014F97207}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52DDB8E4-A6CC-4A98-A620-4258429A7060}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Automation3</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F3BBB827-BB90-4FA2-94B3-6B35C5EC566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52DDB8E4-A6CC-4A98-A620-4258429A7060}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE35EE-0F73-491A-B537-E009F987E2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE35EE-0F73-491A-B537-E009F987E2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A5557F-11F8-4ECD-B69F-A268B96ACA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Automation2</t>
   </si>
   <si>
-    <t>40</t>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A5557F-11F8-4ECD-B69F-A268B96ACA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA8DAA-670B-4BFF-8D53-E60BE6BF2145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>Automation3</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA8DAA-670B-4BFF-8D53-E60BE6BF2145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC97100-29C2-4AAE-B913-4A74E97740B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>42,43,44,45</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC97100-29C2-4AAE-B913-4A74E97740B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA8DAA-670B-4BFF-8D53-E60BE6BF2145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>42,43,44,45</t>
+    <t>Automation3</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA8DAA-670B-4BFF-8D53-E60BE6BF2145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F2482-1853-427F-8E9B-91FA59B8CC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>42-45</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F2482-1853-427F-8E9B-91FA59B8CC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F65A828-40F6-41BD-863C-6D9E0BE7A9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>42-45</t>
+    <t>42</t>
   </si>
   <si>
     <t>Automation1</t>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F65A828-40F6-41BD-863C-6D9E0BE7A9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF573633-161B-414F-B558-AF45E14E6611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\CarryfForawardBalanceRun\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF573633-161B-414F-B558-AF45E14E6611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50279262-2A1F-40F7-AD16-C58C088290F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
+    <t>53</t>
   </si>
   <si>
     <t>Automation2</t>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\LeaveBalanceNotice\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF573633-161B-414F-B558-AF45E14E6611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3AC2EA-445B-47C8-977F-37CBD032B9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Automation2</t>
+    <t>Automation3</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF573633-161B-414F-B558-AF45E14E6611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D400B5A-E5C8-4B39-B989-BB7DF1FDC263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Automation2</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D400B5A-E5C8-4B39-B989-BB7DF1FDC263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D803DAC-8758-4E65-B846-F9284E562B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D803DAC-8758-4E65-B846-F9284E562B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE315118-35D3-4995-8F9F-70C82A17E5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE315118-35D3-4995-8F9F-70C82A17E5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A77D56B-5023-4394-858A-105DDDCBE030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>Automation2</t>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A77D56B-5023-4394-858A-105DDDCBE030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD12B2C-F5A9-4657-8C52-BCC8E524C6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Automation1</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD12B2C-F5A9-4657-8C52-BCC8E524C6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5EC570-5367-44E5-8472-ECD0CF91D49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
     <t>55</t>
+  </si>
+  <si>
+    <t>Automation3</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5EC570-5367-44E5-8472-ECD0CF91D49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21543E8E-C1C1-48C0-B7A6-2D0034619B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>Automation3</t>
+    <t>Automation4</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21543E8E-C1C1-48C0-B7A6-2D0034619B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1E510-79FD-429C-A0C3-9F89FFC22F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Automation4</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Automation5</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1E510-79FD-429C-A0C3-9F89FFC22F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CACC5-36B1-4A8C-B6B6-BA191E61735F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RunMode</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>Sanity.xlsx</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>wild1</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>51</t>
@@ -444,22 +432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43850908-B789-4ACC-9A58-86C69A2C1C06}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875"/>
-    <col min="4" max="4" width="20"/>
-    <col min="5" max="5" width="9.77734375"/>
-    <col min="6" max="6" width="15.109375"/>
-    <col min="7" max="1024" width="8.33203125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -486,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -501,52 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CACC5-36B1-4A8C-B6B6-BA191E61735F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54165428-E207-43BA-B235-575AA299FDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>Automation5</t>
+  </si>
+  <si>
+    <t>163</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -466,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54165428-E207-43BA-B235-575AA299FDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657C77A-9467-4A44-9F82-7A229B550D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation5</t>
-  </si>
-  <si>
-    <t>163</t>
+    <t>Automation1</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657C77A-9467-4A44-9F82-7A229B550D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D9883-F84F-4A63-BC1C-69089BFB9017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation1</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D9883-F84F-4A63-BC1C-69089BFB9017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E1D0F-3EDA-4728-B22F-95852D134874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation2</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>Automation3</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E1D0F-3EDA-4728-B22F-95852D134874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A733239-AFD4-41C7-BBF3-F65CD27CC584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
-    <t>164</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Automation1</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -466,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A733239-AFD4-41C7-BBF3-F65CD27CC584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F2D535-2975-4FEB-B37C-1FC4862BFB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>159</t>
+    <t>45</t>
   </si>
   <si>
     <t>Automation1</t>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F2D535-2975-4FEB-B37C-1FC4862BFB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF54DE46-DA24-435D-BB8F-C87A56401A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>Automation1</t>
+    <t>Automation5</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF54DE46-DA24-435D-BB8F-C87A56401A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5D28A-4449-4B6E-99AD-2E40E34B5A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Automation5</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -466,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5D28A-4449-4B6E-99AD-2E40E34B5A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843A395-36E3-487D-B66C-EA2956C5C2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation5</t>
-  </si>
-  <si>
-    <t>69</t>
+    <t>Automation4</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843A395-36E3-487D-B66C-EA2956C5C2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A39B8-40EB-4DE8-AE99-F40CDE192A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation4</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>Automation5</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A39B8-40EB-4DE8-AE99-F40CDE192A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89533056-2E15-46C9-A0D0-809D4D5D5895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation5</t>
-  </si>
-  <si>
-    <t>69</t>
+    <t>Automation4</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89533056-2E15-46C9-A0D0-809D4D5D5895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DAC20-AC6B-4653-A028-B8D31426F6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>Automation4</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>Automation3</t>
+  </si>
+  <si>
+    <t>168</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DAC20-AC6B-4653-A028-B8D31426F6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246B8A9-60FC-48FD-9A48-8B325EF46866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>DEBUG</t>
   </si>
   <si>
-    <t>Sanity.xlsx</t>
-  </si>
-  <si>
     <t>Automation3</t>
   </si>
   <si>
-    <t>168</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>WeeklySanity.xlsx</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -466,19 +466,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246B8A9-60FC-48FD-9A48-8B325EF46866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EF0943-8284-42B1-AB26-D7F9A2B0112D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="768" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -60,13 +60,13 @@
     <t>DEBUG</t>
   </si>
   <si>
-    <t>Automation3</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
-    <t>WeeklySanity.xlsx</t>
+    <t>Automation5</t>
+  </si>
+  <si>
+    <t>Sanity.xlsx</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -466,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/leave/src/main/resources/Config.xlsx
+++ b/leave/src/main/resources/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EF0943-8284-42B1-AB26-D7F9A2B0112D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C483C0-EFBD-4CC4-9F89-4C5A4842FC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="768" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>all</t>
   </si>
   <si>
-    <t>Automation5</t>
-  </si>
-  <si>
-    <t>Sanity.xlsx</t>
+    <t>WeeklySanity.xlsx</t>
+  </si>
+  <si>
+    <t>Automation2</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
